--- a/PrintIngredientsList/bin/Release/Database/共通.xlsx
+++ b/PrintIngredientsList/bin/Release/Database/共通.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A33C148-93E1-46F5-83DA-C84526411155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850715B8-CB71-44CA-84FA-CEFDAD400CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4050" windowWidth="20385" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="8040" windowWidth="24555" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北九州市八幡西区
-本城東4-5-24
-株式会社地に立つ蝶</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第２工房</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -57,12 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北九州市八幡西区
-本城東2-1-21
-株式会社地に立つ蝶</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>保存方法</t>
     <rPh sb="0" eb="4">
       <t>ホゾンホウホウ</t>
@@ -77,10 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直射日光、高温多湿はお避け下さい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
@@ -96,11 +80,6 @@
     <rPh sb="0" eb="2">
       <t>レイトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要冷凍（-18℃以下）
-※解凍後は当日中にお召し上がりください。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -130,6 +109,25 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北九州市八幡西区本城東4-5-24 株式会社 地に立つ蝶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北九州市八幡西区本城東2-1-21 株式会社 地に立つ蝶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直射日光、高温多湿はお避け下さい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要冷凍（-18℃以下）※解凍後は当日中にお召し上がり下さい</t>
+    <rPh sb="26" eb="27">
+      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,7 +470,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -483,16 +481,16 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="56.25">
+    <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,51 +498,51 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="56.25">
+    <row r="3" spans="1:3" ht="37.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.5">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
